--- a/biology/Zoologie/Geomitra_grabhami/Geomitra_grabhami.xlsx
+++ b/biology/Zoologie/Geomitra_grabhami/Geomitra_grabhami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geomitra grabhami est une espèce de mollusques gastéropodes de la famille des Geomitridae. Cet escargot est endémique de l'archipel de Madère au Portugal.
-Cette espèce a longtemps été considérée éteinte avant que des spécimens vivants ne soient observés en 2008 et 2013[3].
+Cette espèce a longtemps été considérée éteinte avant que des spécimens vivants ne soient observés en 2008 et 2013.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est indirectement menacée par les chèvres introduites sur l'île, qui broutent l'herbe rendant le sol instable et favorisant son érosion. Elle est également menacée par la prédation par les souris[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est indirectement menacée par les chèvres introduites sur l'île, qui broutent l'herbe rendant le sol instable et favorisant son érosion. Elle est également menacée par la prédation par les souris.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wollaston, 1878 : Testacea Atlantica, or the land and freshwater shells of the Azores, Madeiras, Salvages, Canaries, Cape Verdes, and Saint Helena. pp. 1-588 (texte intégral) (en).</t>
         </is>
